--- a/demo/202309月海博個人簽到卡-呂俊廷.xlsx
+++ b/demo/202309月海博個人簽到卡-呂俊廷.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="28">
   <si>
     <t>簽  到</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -960,7 +960,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
@@ -1497,18 +1497,32 @@
       <c r="B24" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="37"/>
+      <c r="C24" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="31">
+        <v>0.34930555555555554</v>
+      </c>
+      <c r="E24" s="25">
+        <v>0.75347222222222221</v>
+      </c>
+      <c r="F24" s="37" t="s">
+        <v>26</v>
+      </c>
       <c r="G24" s="28"/>
       <c r="H24" s="29"/>
       <c r="I24" s="29"/>
       <c r="J24" s="30"/>
       <c r="K24" s="30"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="36"/>
+      <c r="L24" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="M24" s="35">
+        <v>36.4</v>
+      </c>
+      <c r="N24" s="36">
+        <v>36.200000000000003</v>
+      </c>
     </row>
     <row r="25" spans="1:14" s="23" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="26">

--- a/demo/202309月海博個人簽到卡-呂俊廷.xlsx
+++ b/demo/202309月海博個人簽到卡-呂俊廷.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>簽  到</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -659,7 +659,14 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -960,7 +967,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
@@ -1531,18 +1538,32 @@
       <c r="B25" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="37"/>
+      <c r="C25" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="31">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="E25" s="25">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="F25" s="37" t="s">
+        <v>26</v>
+      </c>
       <c r="G25" s="28"/>
       <c r="H25" s="29"/>
       <c r="I25" s="29"/>
       <c r="J25" s="30"/>
       <c r="K25" s="30"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="36"/>
+      <c r="L25" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="M25" s="35">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="N25" s="36">
+        <v>36.4</v>
+      </c>
     </row>
     <row r="26" spans="1:14" s="23" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="58">
@@ -1762,7 +1783,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="M4:N34">
-    <cfRule type="cellIs" dxfId="0" priority="409" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="409" operator="greaterThan">
       <formula>37.5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/demo/202309月海博個人簽到卡-呂俊廷.xlsx
+++ b/demo/202309月海博個人簽到卡-呂俊廷.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="28">
   <si>
     <t>簽  到</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -659,14 +659,7 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <condense val="0"/>
@@ -967,7 +960,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
@@ -1572,10 +1565,18 @@
       <c r="B26" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="60"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="60"/>
+      <c r="C26" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="61">
+        <v>0.34861111111111115</v>
+      </c>
+      <c r="E26" s="62">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="F26" s="37" t="s">
+        <v>26</v>
+      </c>
       <c r="G26" s="63"/>
       <c r="H26" s="64"/>
       <c r="I26" s="64"/>
@@ -1584,8 +1585,12 @@
       <c r="L26" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="M26" s="67"/>
-      <c r="N26" s="68"/>
+      <c r="M26" s="67">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="N26" s="68">
+        <v>36.5</v>
+      </c>
     </row>
     <row r="27" spans="1:14" s="23" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="47">
@@ -1783,7 +1788,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="M4:N34">
-    <cfRule type="cellIs" dxfId="1" priority="409" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="409" operator="greaterThan">
       <formula>37.5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/demo/202309月海博個人簽到卡-呂俊廷.xlsx
+++ b/demo/202309月海博個人簽到卡-呂俊廷.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="28">
   <si>
     <t>簽  到</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -659,7 +659,14 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -960,7 +967,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
@@ -1619,18 +1626,32 @@
       <c r="B28" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="37"/>
+      <c r="C28" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="31">
+        <v>0.34791666666666665</v>
+      </c>
+      <c r="E28" s="25">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="F28" s="37" t="s">
+        <v>26</v>
+      </c>
       <c r="G28" s="28"/>
       <c r="H28" s="29"/>
       <c r="I28" s="29"/>
       <c r="J28" s="30"/>
       <c r="K28" s="30"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="36"/>
+      <c r="L28" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="M28" s="35">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="N28" s="36">
+        <v>36.4</v>
+      </c>
     </row>
     <row r="29" spans="1:14" s="23" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="26">
@@ -1788,7 +1809,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="M4:N34">
-    <cfRule type="cellIs" dxfId="0" priority="409" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="409" operator="greaterThan">
       <formula>37.5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/demo/202309月海博個人簽到卡-呂俊廷.xlsx
+++ b/demo/202309月海博個人簽到卡-呂俊廷.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="28">
   <si>
     <t>簽  到</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -967,7 +967,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
@@ -1660,18 +1660,32 @@
       <c r="B29" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="37"/>
+      <c r="C29" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="31">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="E29" s="25">
+        <v>0.75555555555555554</v>
+      </c>
+      <c r="F29" s="37" t="s">
+        <v>26</v>
+      </c>
       <c r="G29" s="28"/>
       <c r="H29" s="29"/>
       <c r="I29" s="29"/>
       <c r="J29" s="30"/>
       <c r="K29" s="30"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="36"/>
+      <c r="L29" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="M29" s="35">
+        <v>36.4</v>
+      </c>
+      <c r="N29" s="36">
+        <v>36.200000000000003</v>
+      </c>
     </row>
     <row r="30" spans="1:14" s="23" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="26">

--- a/demo/202309月海博個人簽到卡-呂俊廷.xlsx
+++ b/demo/202309月海博個人簽到卡-呂俊廷.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="28">
   <si>
     <t>簽  到</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -967,7 +967,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
@@ -1694,18 +1694,32 @@
       <c r="B30" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="37"/>
+      <c r="C30" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="31">
+        <v>0.34791666666666665</v>
+      </c>
+      <c r="E30" s="25">
+        <v>0.75624999999999998</v>
+      </c>
+      <c r="F30" s="37" t="s">
+        <v>26</v>
+      </c>
       <c r="G30" s="28"/>
       <c r="H30" s="29"/>
       <c r="I30" s="29"/>
       <c r="J30" s="30"/>
       <c r="K30" s="30"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="36"/>
+      <c r="L30" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="M30" s="35">
+        <v>36.5</v>
+      </c>
+      <c r="N30" s="36">
+        <v>36.299999999999997</v>
+      </c>
     </row>
     <row r="31" spans="1:14" s="23" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="26">
